--- a/Items/Mecánica.xlsx
+++ b/Items/Mecánica.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\admin\Documents\EDUCATIVO\PAP\Documentos\Final\Items\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\admin\Documents\EDUCATIVO\PAP\GitHub\PAPDocumentation\Items\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65AB2EDD-07A3-41CB-A4E7-6AAD223B67A0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2524A89B-3284-4D0D-8703-8885863DB8DA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{AFE17416-867B-45DA-A119-4EA220F9A714}"/>
+    <workbookView minimized="1" xWindow="2340" yWindow="2340" windowWidth="15375" windowHeight="7875" xr2:uid="{AFE17416-867B-45DA-A119-4EA220F9A714}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="30">
   <si>
     <t>Item</t>
   </si>
@@ -94,6 +94,27 @@
   </si>
   <si>
     <t>20mmx40mmx6000mm</t>
+  </si>
+  <si>
+    <t>Cremalheiras</t>
+  </si>
+  <si>
+    <t>10B1 70 dentes</t>
+  </si>
+  <si>
+    <t>10B1 10 dentes</t>
+  </si>
+  <si>
+    <t>10B1 60 dentes</t>
+  </si>
+  <si>
+    <t>Parafusos</t>
+  </si>
+  <si>
+    <t>M8</t>
+  </si>
+  <si>
+    <t>M5</t>
   </si>
 </sst>
 </file>
@@ -111,14 +132,6 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -126,6 +139,12 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -150,15 +169,14 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -182,8 +200,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{49B11214-8E49-4D29-A370-DA5410616251}" name="Tabla1" displayName="Tabla1" ref="A1:E10" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:E10" xr:uid="{ADC011DB-7955-4D57-BAA4-99D8D45BAE73}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{49B11214-8E49-4D29-A370-DA5410616251}" name="Tabla1" displayName="Tabla1" ref="A1:E15" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:E15" xr:uid="{ADC011DB-7955-4D57-BAA4-99D8D45BAE73}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{A91863AC-D367-4760-82D4-6ADCF29643FA}" name="Item"/>
     <tableColumn id="2" xr3:uid="{129D965D-CEB0-4403-8876-F420D1F2A8C4}" name="Quantidade"/>
@@ -492,10 +510,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89A75F07-BF44-4E04-9A8C-0C48B878471C}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection sqref="A1:E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -508,19 +526,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -534,7 +552,7 @@
       <c r="C2" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="2">
         <v>11</v>
       </c>
       <c r="E2" t="s">
@@ -653,10 +671,78 @@
         <v>16</v>
       </c>
     </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" t="s">
+        <v>16</v>
+      </c>
+    </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E12" s="1"/>
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14">
+        <v>28</v>
+      </c>
+      <c r="C14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15">
+        <v>30</v>
+      </c>
+      <c r="C15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" t="s">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
